--- a/数据库表.xlsx
+++ b/数据库表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="320" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16400" windowHeight="13880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>唯一id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="121">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,34 +53,438 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出生日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邀请码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>积分</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员号</t>
+  </si>
+  <si>
+    <t>返现</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invitation </t>
+  </si>
+  <si>
+    <t>integral</t>
+  </si>
+  <si>
+    <t>membership</t>
+  </si>
+  <si>
+    <t>returnCash</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>表名：user</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>产品ID</t>
+  </si>
+  <si>
+    <t>userID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户ID</t>
+    </r>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>价钱</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>表名：product</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>productID</t>
+  </si>
+  <si>
+    <t>库存</t>
+  </si>
+  <si>
+    <t>ctock</t>
+  </si>
+  <si>
+    <t>directArea</t>
+  </si>
+  <si>
+    <t>配送地区</t>
+  </si>
+  <si>
+    <t>配送方式</t>
+  </si>
+  <si>
+    <t>directType</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>原料</t>
+  </si>
+  <si>
+    <t>配料1</t>
+  </si>
+  <si>
+    <t>配料2</t>
+  </si>
+  <si>
+    <t>配料3</t>
+  </si>
+  <si>
+    <t>配料4</t>
+  </si>
+  <si>
+    <t>配料5</t>
+  </si>
+  <si>
+    <t>burden1</t>
+  </si>
+  <si>
+    <t>burden5</t>
+  </si>
+  <si>
+    <t>burden4</t>
+  </si>
+  <si>
+    <t>burden3</t>
+  </si>
+  <si>
+    <t>burden2</t>
+  </si>
+  <si>
+    <t>加工方式类型</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>加工方式描述</t>
+  </si>
+  <si>
+    <t>processDes</t>
+  </si>
+  <si>
+    <t>表名：packageOder</t>
+  </si>
+  <si>
+    <t>套餐订单ID</t>
+  </si>
+  <si>
+    <t>packageID</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>详细住址</t>
+  </si>
+  <si>
+    <t>省</t>
+  </si>
+  <si>
+    <t>区</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>配送地址</t>
+  </si>
+  <si>
+    <t>directAddress</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>完成数量</t>
+  </si>
+  <si>
+    <t>finishCount</t>
+  </si>
+  <si>
+    <t>validTime</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>注册时间</t>
+  </si>
+  <si>
+    <t>registerTime</t>
+  </si>
+  <si>
+    <t>下单时间</t>
+  </si>
+  <si>
+    <t>有效时间</t>
+  </si>
+  <si>
+    <t>buyTime</t>
+  </si>
+  <si>
+    <t>配送时间方式</t>
+  </si>
+  <si>
+    <t>directTimeType</t>
+  </si>
+  <si>
+    <t>每周，每隔</t>
+  </si>
+  <si>
+    <t>配送时间间隔</t>
+  </si>
+  <si>
+    <t>directInterval</t>
+  </si>
+  <si>
+    <t>支付方式</t>
+  </si>
+  <si>
+    <t>是否已支付</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>isPay</t>
+  </si>
+  <si>
+    <t>payType</t>
+  </si>
+  <si>
+    <t>微信，支付宝</t>
+  </si>
+  <si>
+    <t>支付时间</t>
+  </si>
+  <si>
+    <t>payTime</t>
+  </si>
+  <si>
+    <t>打折价钱</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>订单ID</t>
+  </si>
+  <si>
+    <t>orderID</t>
+  </si>
+  <si>
+    <t>表名：order</t>
+  </si>
+  <si>
+    <t>配送状态</t>
+  </si>
+  <si>
+    <t>directState</t>
+  </si>
+  <si>
+    <t>未配送，配送中，已配送，配送失败</t>
+  </si>
+  <si>
+    <t>配送时间</t>
+  </si>
+  <si>
+    <t>directTime</t>
+  </si>
+  <si>
+    <t>配送评分</t>
+  </si>
+  <si>
+    <t>directScore</t>
+  </si>
+  <si>
+    <t>产品评分</t>
+  </si>
+  <si>
+    <t>productScore</t>
+  </si>
+  <si>
+    <t>用户反馈</t>
+  </si>
+  <si>
+    <t>feedback</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -107,14 +507,198 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="87">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -443,72 +1027,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -519,14 +1280,238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="19.5" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -537,14 +1522,178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="19.5" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -555,14 +1704,132 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="20">
+      <c r="A1" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="20">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="20">
+      <c r="A3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="20">
+      <c r="A4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="20">
+      <c r="A5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="20">
+      <c r="A6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="20">
+      <c r="A7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="20">
+      <c r="A8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20">
+      <c r="A9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="20">
+      <c r="A10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
